--- a/Messungen/Auswertung-Y-Richtung.xlsx
+++ b/Messungen/Auswertung-Y-Richtung.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="speedtest" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -672,7 +672,7 @@
           </c:spPr>
           <c:trendline>
             <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
+            <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
               <c:layout/>
@@ -863,11 +863,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="606891968"/>
-        <c:axId val="606891392"/>
+        <c:axId val="5332288"/>
+        <c:axId val="150303808"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="606891968"/>
+        <c:axId val="5332288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -877,12 +877,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="606891392"/>
+        <c:crossAx val="150303808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="606891392"/>
+        <c:axId val="150303808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -893,7 +893,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="606891968"/>
+        <c:crossAx val="5332288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1136,11 +1136,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="153224896"/>
-        <c:axId val="153224320"/>
+        <c:axId val="150541952"/>
+        <c:axId val="150542528"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="153224896"/>
+        <c:axId val="150541952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1150,12 +1150,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="153224320"/>
+        <c:crossAx val="150542528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="153224320"/>
+        <c:axId val="150542528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1166,7 +1166,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="153224896"/>
+        <c:crossAx val="150541952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1409,11 +1409,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="153230080"/>
-        <c:axId val="153229504"/>
+        <c:axId val="150601728"/>
+        <c:axId val="150602304"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="153230080"/>
+        <c:axId val="150601728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1423,12 +1423,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="153229504"/>
+        <c:crossAx val="150602304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="153229504"/>
+        <c:axId val="150602304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1439,7 +1439,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="153230080"/>
+        <c:crossAx val="150601728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1491,10 +1491,15 @@
           </c:spPr>
           <c:trendline>
             <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
+            <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.31744706349005408"/>
+                  <c:y val="0.27323929189702351"/>
+                </c:manualLayout>
+              </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
             </c:trendlineLbl>
           </c:trendline>
@@ -1682,11 +1687,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="33937600"/>
-        <c:axId val="33937024"/>
+        <c:axId val="150604032"/>
+        <c:axId val="150604608"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="33937600"/>
+        <c:axId val="150604032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1696,12 +1701,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="33937024"/>
+        <c:crossAx val="150604608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="33937024"/>
+        <c:axId val="150604608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1712,16 +1717,11 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="33937600"/>
+        <c:crossAx val="150604032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -1764,7 +1764,7 @@
           </c:spPr>
           <c:trendline>
             <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
+            <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
               <c:layout/>
@@ -1955,11 +1955,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="638609088"/>
-        <c:axId val="153111360"/>
+        <c:axId val="150606336"/>
+        <c:axId val="150606912"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="638609088"/>
+        <c:axId val="150606336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1969,12 +1969,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="153111360"/>
+        <c:crossAx val="150606912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="153111360"/>
+        <c:axId val="150606912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1985,7 +1985,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="638609088"/>
+        <c:crossAx val="150606336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2037,10 +2037,15 @@
           </c:spPr>
           <c:trendline>
             <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
+            <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.29688755197735117"/>
+                  <c:y val="0.27822410840070383"/>
+                </c:manualLayout>
+              </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
             </c:trendlineLbl>
           </c:trendline>
@@ -2228,11 +2233,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="152859136"/>
-        <c:axId val="152858560"/>
+        <c:axId val="150608640"/>
+        <c:axId val="150609216"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="152859136"/>
+        <c:axId val="150608640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2242,12 +2247,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="152858560"/>
+        <c:crossAx val="150609216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="152858560"/>
+        <c:axId val="150609216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2258,16 +2263,11 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="152859136"/>
+        <c:crossAx val="150608640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -2501,11 +2501,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="638614272"/>
-        <c:axId val="152861440"/>
+        <c:axId val="150676608"/>
+        <c:axId val="150677184"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="638614272"/>
+        <c:axId val="150676608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2515,12 +2515,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="152861440"/>
+        <c:crossAx val="150677184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="152861440"/>
+        <c:axId val="150677184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2531,7 +2531,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="638614272"/>
+        <c:crossAx val="150676608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2774,11 +2774,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="153358272"/>
-        <c:axId val="153355968"/>
+        <c:axId val="150678912"/>
+        <c:axId val="150679488"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="153358272"/>
+        <c:axId val="150678912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2788,12 +2788,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="153355968"/>
+        <c:crossAx val="150679488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="153355968"/>
+        <c:axId val="150679488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2804,7 +2804,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="153358272"/>
+        <c:crossAx val="150678912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3047,11 +3047,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="632668736"/>
-        <c:axId val="632668160"/>
+        <c:axId val="150681792"/>
+        <c:axId val="150682368"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="632668736"/>
+        <c:axId val="150681792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3061,12 +3061,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="632668160"/>
+        <c:crossAx val="150682368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="632668160"/>
+        <c:axId val="150682368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3077,7 +3077,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="632668736"/>
+        <c:crossAx val="150681792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3320,11 +3320,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="632673344"/>
-        <c:axId val="632672768"/>
+        <c:axId val="150815296"/>
+        <c:axId val="150815872"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="632673344"/>
+        <c:axId val="150815296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3334,12 +3334,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="632672768"/>
+        <c:crossAx val="150815872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="632672768"/>
+        <c:axId val="150815872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3350,7 +3350,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="632673344"/>
+        <c:crossAx val="150815296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3593,11 +3593,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="649963200"/>
-        <c:axId val="649962624"/>
+        <c:axId val="150817600"/>
+        <c:axId val="150818176"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="649963200"/>
+        <c:axId val="150817600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3607,12 +3607,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="649962624"/>
+        <c:crossAx val="150818176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="649962624"/>
+        <c:axId val="150818176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3623,7 +3623,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="649963200"/>
+        <c:crossAx val="150817600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3675,7 +3675,7 @@
           </c:spPr>
           <c:trendline>
             <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
+            <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
               <c:layout/>
@@ -3866,11 +3866,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="632434624"/>
-        <c:axId val="632434048"/>
+        <c:axId val="150305536"/>
+        <c:axId val="150306112"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="632434624"/>
+        <c:axId val="150305536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3880,12 +3880,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="632434048"/>
+        <c:crossAx val="150306112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="632434048"/>
+        <c:axId val="150306112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3896,7 +3896,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="632434624"/>
+        <c:crossAx val="150305536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3948,10 +3948,15 @@
           </c:spPr>
           <c:trendline>
             <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
+            <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.23814887447353322"/>
+                  <c:y val="0.25830849798194505"/>
+                </c:manualLayout>
+              </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
             </c:trendlineLbl>
           </c:trendline>
@@ -4139,46 +4144,79 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="649967808"/>
-        <c:axId val="649967232"/>
+        <c:axId val="150819904"/>
+        <c:axId val="150820480"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="649967808"/>
+        <c:axId val="150819904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Zeit in Sekunden</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="649967232"/>
+        <c:crossAx val="150820480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="649967232"/>
+        <c:axId val="150820480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Strecke in Millimeter</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="649967808"/>
+        <c:crossAx val="150819904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -4412,11 +4450,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="650136384"/>
-        <c:axId val="650134080"/>
+        <c:axId val="150821632"/>
+        <c:axId val="150822208"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="650136384"/>
+        <c:axId val="150821632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4426,12 +4464,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="650134080"/>
+        <c:crossAx val="150822208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="650134080"/>
+        <c:axId val="150822208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4442,7 +4480,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="650136384"/>
+        <c:crossAx val="150821632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4685,11 +4723,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="650140992"/>
-        <c:axId val="650138688"/>
+        <c:axId val="628262016"/>
+        <c:axId val="628262592"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="650140992"/>
+        <c:axId val="628262016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4699,12 +4737,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="650138688"/>
+        <c:crossAx val="628262592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="650138688"/>
+        <c:axId val="628262592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4715,7 +4753,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="650140992"/>
+        <c:crossAx val="628262016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4958,11 +4996,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="663171008"/>
-        <c:axId val="663170432"/>
+        <c:axId val="628264320"/>
+        <c:axId val="628264896"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="663171008"/>
+        <c:axId val="628264320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4972,12 +5010,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="663170432"/>
+        <c:crossAx val="628264896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="663170432"/>
+        <c:axId val="628264896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4988,7 +5026,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="663171008"/>
+        <c:crossAx val="628264320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5231,11 +5269,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="664928832"/>
-        <c:axId val="663173312"/>
+        <c:axId val="628266624"/>
+        <c:axId val="628267200"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="664928832"/>
+        <c:axId val="628266624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5245,12 +5283,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="663173312"/>
+        <c:crossAx val="628267200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="663173312"/>
+        <c:axId val="628267200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5261,7 +5299,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="664928832"/>
+        <c:crossAx val="628266624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5504,11 +5542,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="137163840"/>
-        <c:axId val="137163264"/>
+        <c:axId val="625608384"/>
+        <c:axId val="625608960"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="137163840"/>
+        <c:axId val="625608384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5518,12 +5556,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="137163264"/>
+        <c:crossAx val="625608960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="137163264"/>
+        <c:axId val="625608960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5534,7 +5572,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="137163840"/>
+        <c:crossAx val="625608384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5777,11 +5815,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="632433472"/>
-        <c:axId val="632432896"/>
+        <c:axId val="150462464"/>
+        <c:axId val="150463040"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="632433472"/>
+        <c:axId val="150462464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5791,12 +5829,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="632432896"/>
+        <c:crossAx val="150463040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="632432896"/>
+        <c:axId val="150463040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5807,7 +5845,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="632433472"/>
+        <c:crossAx val="150462464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6050,11 +6088,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="637404864"/>
-        <c:axId val="637404288"/>
+        <c:axId val="150464768"/>
+        <c:axId val="150465344"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="637404864"/>
+        <c:axId val="150464768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6064,12 +6102,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="637404288"/>
+        <c:crossAx val="150465344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="637404288"/>
+        <c:axId val="150465344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6080,7 +6118,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="637404864"/>
+        <c:crossAx val="150464768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6323,11 +6361,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="637409472"/>
-        <c:axId val="637407168"/>
+        <c:axId val="150467072"/>
+        <c:axId val="150467648"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="637409472"/>
+        <c:axId val="150467072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6337,12 +6375,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="637407168"/>
+        <c:crossAx val="150467648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="637407168"/>
+        <c:axId val="150467648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6353,7 +6391,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="637409472"/>
+        <c:crossAx val="150467072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6596,11 +6634,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="638610240"/>
-        <c:axId val="638607936"/>
+        <c:axId val="150469376"/>
+        <c:axId val="150469952"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="638610240"/>
+        <c:axId val="150469376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6610,12 +6648,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="638607936"/>
+        <c:crossAx val="150469952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="638607936"/>
+        <c:axId val="150469952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6626,7 +6664,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="638610240"/>
+        <c:crossAx val="150469376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6869,11 +6907,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="638614848"/>
-        <c:axId val="638612544"/>
+        <c:axId val="150537344"/>
+        <c:axId val="150537920"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="638614848"/>
+        <c:axId val="150537344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6883,12 +6921,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="638612544"/>
+        <c:crossAx val="150537920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="638612544"/>
+        <c:axId val="150537920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6899,7 +6937,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="638614848"/>
+        <c:crossAx val="150537344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7142,11 +7180,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="153114816"/>
-        <c:axId val="153114240"/>
+        <c:axId val="150539648"/>
+        <c:axId val="150540224"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="153114816"/>
+        <c:axId val="150539648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7156,12 +7194,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="153114240"/>
+        <c:crossAx val="150540224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="153114240"/>
+        <c:axId val="150540224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7172,7 +7210,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="153114816"/>
+        <c:crossAx val="150539648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7528,16 +7566,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>340</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>339</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>355</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>695325</xdr:colOff>
+      <xdr:row>362</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7588,16 +7626,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>397</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>66674</xdr:colOff>
+      <xdr:row>396</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>411</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>666749</xdr:colOff>
+      <xdr:row>418</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7768,16 +7806,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>580</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>133349</xdr:colOff>
+      <xdr:row>579</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>595</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>602</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8208,8 +8246,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F719"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A690" workbookViewId="0">
-      <selection activeCell="F314" sqref="F314"/>
+    <sheetView tabSelected="1" topLeftCell="C568" workbookViewId="0">
+      <selection activeCell="Q595" sqref="Q595"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
